--- a/mapping/Mapping.xlsx
+++ b/mapping/Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arzer\seadrive_root\Aleks Ar\Meine Bibliotheken\Meine Bibliothek\MeineProjekte\umati\net_umaticonnect\mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arzer\seadrive_root\Aleks Ar\Meine Bibliotheken\Meine Bibliothek\MeineProjekte\umati\connect\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613690E-F1E5-485E-B9B4-6D61882CC57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EABD3F-6DF9-4485-9EE2-23B9A5FE11DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C8900138-5871-4382-9539-8E39C53F56A2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="598">
   <si>
     <t>Identification/SerialNumber</t>
   </si>
@@ -2952,6 +2952,18 @@
   <si>
     <t>Here the actual data is defined that the devices components and components return</t>
   </si>
+  <si>
+    <t>&lt;DeviceStream&gt;/uuid</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>&lt;DeviceStream&gt;/name</t>
+  </si>
+  <si>
+    <t>2 devices: "Agent" and Machine</t>
+  </si>
 </sst>
 </file>
 
@@ -3211,6 +3223,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3232,11 +3246,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3595,8 +3607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{66C3DCF3-55AA-4DAA-A0E0-5C2ABF3A0434}" name="Tabelle6" displayName="Tabelle6" ref="A2:P180" totalsRowShown="0">
-  <autoFilter ref="A2:P180" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{66C3DCF3-55AA-4DAA-A0E0-5C2ABF3A0434}" name="Tabelle6" displayName="Tabelle6" ref="A2:P178" totalsRowShown="0">
+  <autoFilter ref="A2:P178" xr:uid="{35CFAB4B-0F7E-4FC4-9533-702E35E8C9F1}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{D88D36E7-E76C-4336-AEF0-B26FA5DDFF9E}" name="Modelling Rule" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{0CDAA3B3-B3B4-482C-997B-0387A7F96921}" name="Node Class"/>
@@ -4019,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB84FDD-5F08-492E-A691-BBB4F5A6D0EC}">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="E111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4045,28 +4057,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -4287,7 +4299,28 @@
       <c r="F10" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="G10" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
@@ -4434,7 +4467,28 @@
       <c r="F17" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="G17" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
@@ -4718,31 +4772,9 @@
       <c r="F29" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>377</v>
-      </c>
+      <c r="G29" s="24"/>
       <c r="K29" s="26"/>
-      <c r="L29" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>377</v>
-      </c>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
@@ -6016,7 +6048,7 @@
       <c r="J80" s="25"/>
       <c r="K80" s="26"/>
     </row>
-    <row r="81" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>30</v>
       </c>
@@ -6039,7 +6071,7 @@
       <c r="J81" s="25"/>
       <c r="K81" s="26"/>
     </row>
-    <row r="82" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>30</v>
       </c>
@@ -6064,7 +6096,7 @@
       <c r="J82" s="25"/>
       <c r="K82" s="26"/>
     </row>
-    <row r="83" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>30</v>
       </c>
@@ -6097,7 +6129,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>30</v>
       </c>
@@ -6122,7 +6154,7 @@
       <c r="J84" s="25"/>
       <c r="K84" s="26"/>
     </row>
-    <row r="85" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>520</v>
       </c>
@@ -6147,7 +6179,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>30</v>
       </c>
@@ -6172,7 +6204,7 @@
       <c r="J86" s="25"/>
       <c r="K86" s="26"/>
     </row>
-    <row r="87" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>29</v>
       </c>
@@ -6191,32 +6223,11 @@
       <c r="F87" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="G87" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25" t="s">
-        <v>2</v>
-      </c>
+      <c r="G87" s="24"/>
       <c r="K87" s="26"/>
-      <c r="L87" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P87" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="22"/>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>30</v>
       </c>
@@ -6249,7 +6260,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>30</v>
       </c>
@@ -6272,7 +6283,7 @@
       <c r="J89" s="25"/>
       <c r="K89" s="26"/>
     </row>
-    <row r="90" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>30</v>
       </c>
@@ -6297,7 +6308,7 @@
       <c r="J90" s="25"/>
       <c r="K90" s="26"/>
     </row>
-    <row r="91" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>476</v>
       </c>
@@ -6318,7 +6329,7 @@
       <c r="J91" s="25"/>
       <c r="K91" s="26"/>
     </row>
-    <row r="92" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>520</v>
       </c>
@@ -6343,7 +6354,7 @@
       <c r="J92" s="25"/>
       <c r="K92" s="26"/>
     </row>
-    <row r="93" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>520</v>
       </c>
@@ -6370,7 +6381,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="94" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>520</v>
       </c>
@@ -6395,7 +6406,7 @@
       <c r="J94" s="25"/>
       <c r="K94" s="26"/>
     </row>
-    <row r="95" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
         <v>520</v>
       </c>
@@ -6429,7 +6440,7 @@
       </c>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>30</v>
       </c>
@@ -7486,7 +7497,28 @@
       <c r="F140" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="L140" s="10"/>
+      <c r="G140" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="H140" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J140" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N140" s="4"/>
+      <c r="O140" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P140" s="10" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
@@ -7507,7 +7539,30 @@
       <c r="F141" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="L141" s="10"/>
+      <c r="G141" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="H141" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="J141" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
@@ -7678,13 +7733,13 @@
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
       <c r="L148" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>2</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -7697,10 +7752,10 @@
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
       <c r="L149" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O149" s="4" t="s">
         <v>377</v>
@@ -7716,13 +7771,13 @@
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
       <c r="L150" s="10" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -7735,13 +7790,13 @@
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
       <c r="L151" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -7754,10 +7809,10 @@
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
       <c r="L152" s="10" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="O152" s="4" t="s">
         <v>2</v>
@@ -7773,13 +7828,13 @@
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
       <c r="L153" s="10" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>2</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -7792,13 +7847,13 @@
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
       <c r="L154" s="10" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>2</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -7811,13 +7866,13 @@
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
       <c r="L155" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -7830,10 +7885,10 @@
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
       <c r="L156" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O156" s="4" t="s">
         <v>377</v>
@@ -7849,10 +7904,10 @@
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
       <c r="L157" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="O157" s="4" t="s">
         <v>2</v>
@@ -7868,13 +7923,16 @@
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
       <c r="L158" s="10" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="O158" s="4" t="s">
-        <v>377</v>
+        <v>120</v>
+      </c>
+      <c r="O158" t="s">
+        <v>2</v>
+      </c>
+      <c r="P158" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -7887,10 +7945,10 @@
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
       <c r="L159" s="10" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>552</v>
+        <v>125</v>
       </c>
       <c r="O159" s="4" t="s">
         <v>2</v>
@@ -7906,16 +7964,16 @@
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
       <c r="L160" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O160" t="s">
-        <v>2</v>
-      </c>
-      <c r="P160" t="s">
-        <v>553</v>
+        <v>126</v>
+      </c>
+      <c r="O160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P160" s="4" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -7928,13 +7986,16 @@
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
       <c r="L161" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O161" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="P161" s="4" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -7947,16 +8008,13 @@
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
       <c r="L162" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O162" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P162" s="4" t="s">
-        <v>555</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -7969,16 +8027,13 @@
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
       <c r="L163" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="M163" s="4" t="s">
-        <v>127</v>
+        <v>574</v>
+      </c>
+      <c r="M163" t="s">
+        <v>102</v>
       </c>
       <c r="O163" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="P163" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
@@ -7991,33 +8046,48 @@
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
       <c r="L164" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="M164" s="4" t="s">
-        <v>128</v>
+        <v>564</v>
+      </c>
+      <c r="M164" t="s">
+        <v>103</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>377</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P164" s="4"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B165" s="25"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="E165" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="F165" s="25" t="s">
+        <v>267</v>
+      </c>
       <c r="L165" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="M165" t="s">
-        <v>102</v>
+        <v>575</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="O165" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="P165" s="4"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
@@ -8029,10 +8099,13 @@
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
       <c r="L166" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="M166" t="s">
-        <v>103</v>
+        <v>575</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="O166" s="4" t="s">
         <v>2</v>
@@ -8041,23 +8114,13 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>267</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
       <c r="L167" s="10" t="s">
         <v>575</v>
       </c>
@@ -8065,7 +8128,7 @@
         <v>143</v>
       </c>
       <c r="N167" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O167" s="4" t="s">
         <v>2</v>
@@ -8082,18 +8145,18 @@
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
       <c r="L168" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N168" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N168" s="4"/>
       <c r="O168" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P168" s="4"/>
+      <c r="P168" s="4" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
@@ -8105,18 +8168,18 @@
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
       <c r="L169" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N169" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N169" s="4"/>
       <c r="O169" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P169" s="4"/>
+      <c r="P169" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
@@ -8128,17 +8191,16 @@
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
       <c r="L170" s="10" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P170" s="4" t="s">
-        <v>557</v>
+        <v>157</v>
+      </c>
+      <c r="O170" t="s">
+        <v>2</v>
+      </c>
+      <c r="P170" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -8151,17 +8213,13 @@
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
       <c r="L171" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P171" s="4" t="s">
-        <v>558</v>
+        <v>161</v>
+      </c>
+      <c r="O171" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
@@ -8174,16 +8232,13 @@
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
       <c r="L172" s="10" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O172" t="s">
-        <v>2</v>
-      </c>
-      <c r="P172" t="s">
-        <v>559</v>
+        <v>163</v>
+      </c>
+      <c r="O172" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
@@ -8196,10 +8251,10 @@
       <c r="E173" s="25"/>
       <c r="F173" s="25"/>
       <c r="L173" s="10" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O173" s="10" t="s">
         <v>2</v>
@@ -8215,13 +8270,13 @@
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
       <c r="L174" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O174" s="10" t="s">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="O174" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -8234,13 +8289,19 @@
       <c r="E175" s="25"/>
       <c r="F175" s="25"/>
       <c r="L175" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="M175" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O175" s="10" t="s">
-        <v>2</v>
+        <v>584</v>
+      </c>
+      <c r="M175" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="N175" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O175" t="s">
+        <v>2</v>
+      </c>
+      <c r="P175" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -8253,13 +8314,16 @@
       <c r="E176" s="25"/>
       <c r="F176" s="25"/>
       <c r="L176" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="M176" s="4" t="s">
-        <v>99</v>
+        <v>584</v>
+      </c>
+      <c r="M176" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="N176" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O176" t="s">
-        <v>377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -8277,85 +8341,38 @@
       <c r="M177" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="N177" s="10" t="s">
-        <v>67</v>
+      <c r="N177" t="s">
+        <v>117</v>
       </c>
       <c r="O177" t="s">
         <v>2</v>
       </c>
       <c r="P177" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
       <c r="L178" s="10" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="M178" s="10" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="N178" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O178" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A179" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="L179" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="M179" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="N179" t="s">
         <v>117</v>
       </c>
-      <c r="O179" t="s">
-        <v>2</v>
-      </c>
-      <c r="P179" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="L180" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="M180" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="N180" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O180" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P180" t="s">
+      <c r="O178" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P178" t="s">
         <v>587</v>
       </c>
     </row>
@@ -11169,370 +11186,370 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31" t="s">
         <v>593</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
     </row>
     <row r="6" spans="2:30" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="M6" s="35" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="M6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="W6" s="35" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="W6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
     </row>
     <row r="7" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="W7" s="1"/>
     </row>
     <row r="24" spans="13:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="34" t="s">
+      <c r="M24" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
     </row>
     <row r="25" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
     </row>
     <row r="26" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
     </row>
     <row r="27" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
     </row>
     <row r="28" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
     </row>
     <row r="29" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
     </row>
     <row r="30" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
     </row>
     <row r="31" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
     </row>
     <row r="32" spans="13:20" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
     </row>
     <row r="37" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="2:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
